--- a/Manual-Submissions/Question 1- Functional Testing.xlsx
+++ b/Manual-Submissions/Question 1- Functional Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -357,11 +357,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -396,6 +396,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -411,22 +427,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,6 +444,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,18 +495,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,7 +511,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -503,7 +519,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,31 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,18 +574,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,7 +586,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,85 +718,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,55 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,17 +807,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +829,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,21 +896,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -893,162 +904,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <v>44387</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -7675,7 +7675,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
